--- a/util/listadoEstudiantes2.xlsx
+++ b/util/listadoEstudiantes2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Nombres</t>
   </si>
@@ -19,22 +19,40 @@
     <t>Apellidos</t>
   </si>
   <si>
-    <t>Identidad</t>
+    <t>Numero de Cuenta</t>
   </si>
   <si>
     <t>Correo</t>
   </si>
   <si>
-    <t>Franciso Rigoberto</t>
-  </si>
-  <si>
-    <t>Salinas Silva</t>
-  </si>
-  <si>
-    <t>0818-2002-0001</t>
-  </si>
-  <si>
-    <t>correo5unah+aspi100@gmail.com</t>
+    <t>Hernan Marcio</t>
+  </si>
+  <si>
+    <t>Lopez Orellana</t>
+  </si>
+  <si>
+    <t>2023100007</t>
+  </si>
+  <si>
+    <t>correo5unah@gmail.com</t>
+  </si>
+  <si>
+    <t>Victor Darwin</t>
+  </si>
+  <si>
+    <t>Licona Suarez</t>
+  </si>
+  <si>
+    <t>2023100008</t>
+  </si>
+  <si>
+    <t>Weslin Francisco</t>
+  </si>
+  <si>
+    <t>Barahona Richards</t>
+  </si>
+  <si>
+    <t>2023100009</t>
   </si>
 </sst>
 </file>
@@ -411,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="4" width="30" customWidth="1"/>
@@ -445,6 +463,34 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
